--- a/public/template_supplier.xlsx
+++ b/public/template_supplier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D488691-8A15-48F8-9AC7-3C3A70FB804A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC78D5F-EDD0-4472-A205-334CEC2D1670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="3168" windowWidth="13800" windowHeight="7092" xr2:uid="{F942B8B4-F35F-4763-904C-2944A78419C7}"/>
+    <workbookView xWindow="4224" yWindow="4212" windowWidth="13800" windowHeight="7092" xr2:uid="{F942B8B4-F35F-4763-904C-2944A78419C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>supplier alamat</t>
   </si>
   <si>
-    <t>tif</t>
-  </si>
-  <si>
     <t>Athif Supplier</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>Jl remujung 2</t>
+  </si>
+  <si>
+    <t>tif1</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,24 +439,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
